--- a/assets/Cpl_data.xlsx
+++ b/assets/Cpl_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOOD\CODE\Khelruyt\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -560,18 +560,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -593,7 +593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -604,7 +604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -615,7 +615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -626,7 +626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -637,7 +637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -648,7 +648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -659,7 +659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -670,7 +670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -693,19 +693,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -722,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -739,7 +740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -756,7 +757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -773,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -790,7 +791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -807,7 +808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -824,7 +825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -841,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -858,7 +859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -875,7 +876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>

--- a/assets/Cpl_data.xlsx
+++ b/assets/Cpl_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOOD\CODE\cplbidding\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>TeamID</t>
   </si>
@@ -223,15 +223,6 @@
   </si>
   <si>
     <t>spartans.jpg</t>
-  </si>
-  <si>
-    <t>warriors.jpg</t>
-  </si>
-  <si>
-    <t>T09</t>
-  </si>
-  <si>
-    <t>Silver Titans</t>
   </si>
 </sst>
 </file>
@@ -558,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,17 +661,6 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="B2:B16">
     <sortCondition ref="B2"/>
@@ -693,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/Cpl_data.xlsx
+++ b/assets/Cpl_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
   <si>
     <t>TeamID</t>
   </si>
@@ -75,105 +75,42 @@
     <t>PhotoFileName</t>
   </si>
   <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>Rahul Sharma</t>
-  </si>
-  <si>
     <t>Batsman</t>
   </si>
   <si>
     <t>rahul.jpg</t>
   </si>
   <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>Ankit Verma</t>
-  </si>
-  <si>
     <t>Bowler</t>
   </si>
   <si>
     <t>ankit.jpg</t>
   </si>
   <si>
-    <t>P003</t>
-  </si>
-  <si>
-    <t>Neha Reddy</t>
-  </si>
-  <si>
-    <t>WicketKeeper</t>
-  </si>
-  <si>
     <t>neha.jpg</t>
   </si>
   <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>Arjun Patel</t>
-  </si>
-  <si>
     <t>All-rounder</t>
   </si>
   <si>
     <t>arjun.jpg</t>
   </si>
   <si>
-    <t>P005</t>
-  </si>
-  <si>
-    <t>Priya Singh</t>
-  </si>
-  <si>
     <t>priya.jpg</t>
   </si>
   <si>
-    <t>P006</t>
-  </si>
-  <si>
-    <t>Karan Kumar</t>
-  </si>
-  <si>
     <t>karan.jpg</t>
   </si>
   <si>
-    <t>P007</t>
-  </si>
-  <si>
-    <t>Sanya Sharma</t>
-  </si>
-  <si>
     <t>sanya.jpg</t>
   </si>
   <si>
-    <t>P008</t>
-  </si>
-  <si>
-    <t>Rohan Mehta</t>
-  </si>
-  <si>
     <t>rohan.jpg</t>
   </si>
   <si>
-    <t>P009</t>
-  </si>
-  <si>
-    <t>Tanya Das</t>
-  </si>
-  <si>
     <t>tanya.jpg</t>
   </si>
   <si>
-    <t>P010</t>
-  </si>
-  <si>
-    <t>Aditya Joshi</t>
-  </si>
-  <si>
     <t>aditya.jpg</t>
   </si>
   <si>
@@ -223,13 +160,325 @@
   </si>
   <si>
     <t>spartans.jpg</t>
+  </si>
+  <si>
+    <t>54YB</t>
+  </si>
+  <si>
+    <t>Adithya Varma Penmetcha</t>
+  </si>
+  <si>
+    <t>248V</t>
+  </si>
+  <si>
+    <t>Bhanu Prakash Jakkuluri</t>
+  </si>
+  <si>
+    <t>5E6D</t>
+  </si>
+  <si>
+    <t>Bharath Reddy</t>
+  </si>
+  <si>
+    <t>Bharath Reddy. Koyya</t>
+  </si>
+  <si>
+    <t>5YLB</t>
+  </si>
+  <si>
+    <t>Buruvu Naveen Kumar Reddy</t>
+  </si>
+  <si>
+    <t>52XA</t>
+  </si>
+  <si>
+    <t>CHANDRA KANTH KANAMARLAPUDI</t>
+  </si>
+  <si>
+    <t>2X2H</t>
+  </si>
+  <si>
+    <t>Chandra Sekhar Gubbala</t>
+  </si>
+  <si>
+    <t>7V94</t>
+  </si>
+  <si>
+    <t>Deekshit Pulluri</t>
+  </si>
+  <si>
+    <t>Wicket Keeper</t>
+  </si>
+  <si>
+    <t>8Q1H</t>
+  </si>
+  <si>
+    <t>Gavara Pavan Kumar</t>
+  </si>
+  <si>
+    <t>836I</t>
+  </si>
+  <si>
+    <t>Haniel</t>
+  </si>
+  <si>
+    <t>7WJE</t>
+  </si>
+  <si>
+    <t>Harish Reddy Anapala</t>
+  </si>
+  <si>
+    <t>82NY</t>
+  </si>
+  <si>
+    <t>Hemanta Kumar Khosla</t>
+  </si>
+  <si>
+    <t>7MW4</t>
+  </si>
+  <si>
+    <t>Kishore Kumar Velpuri</t>
+  </si>
+  <si>
+    <t>8XXP</t>
+  </si>
+  <si>
+    <t>koushik M</t>
+  </si>
+  <si>
+    <t>Mohammad Fasiuddin</t>
+  </si>
+  <si>
+    <t>32XC</t>
+  </si>
+  <si>
+    <t>Narayana Reddy</t>
+  </si>
+  <si>
+    <t>1P0T</t>
+  </si>
+  <si>
+    <t>NEVIN BABY JOSEPH</t>
+  </si>
+  <si>
+    <t>91RY</t>
+  </si>
+  <si>
+    <t>Omkar S B</t>
+  </si>
+  <si>
+    <t>CNC8</t>
+  </si>
+  <si>
+    <t>Omprakash nayak</t>
+  </si>
+  <si>
+    <t>LTI7</t>
+  </si>
+  <si>
+    <t>Pavan Pulasani</t>
+  </si>
+  <si>
+    <t>4LQC</t>
+  </si>
+  <si>
+    <t>PRANAY BARIGELA</t>
+  </si>
+  <si>
+    <t>7N91</t>
+  </si>
+  <si>
+    <t>Prasad Renikunta</t>
+  </si>
+  <si>
+    <t>5DVA</t>
+  </si>
+  <si>
+    <t>Prasanth Erunali</t>
+  </si>
+  <si>
+    <t>QHE1</t>
+  </si>
+  <si>
+    <t>Praveen Mattaparthi</t>
+  </si>
+  <si>
+    <t>4kqq</t>
+  </si>
+  <si>
+    <t>Praveen Vadla</t>
+  </si>
+  <si>
+    <t>5F0W</t>
+  </si>
+  <si>
+    <t>Rahul Voruganti</t>
+  </si>
+  <si>
+    <t>7R2W</t>
+  </si>
+  <si>
+    <t>Rajwinder Singh</t>
+  </si>
+  <si>
+    <t>JKJ8</t>
+  </si>
+  <si>
+    <t>Ramakrishna Ch</t>
+  </si>
+  <si>
+    <t>XXK4</t>
+  </si>
+  <si>
+    <t>Ramu Pedada</t>
+  </si>
+  <si>
+    <t>92LL</t>
+  </si>
+  <si>
+    <t>Rishabh Kumar</t>
+  </si>
+  <si>
+    <t>930P</t>
+  </si>
+  <si>
+    <t>Rithikesh Mamidi</t>
+  </si>
+  <si>
+    <t>84MR</t>
+  </si>
+  <si>
+    <t>Sai Santhosh Prasen Mukka</t>
+  </si>
+  <si>
+    <t>8MTK</t>
+  </si>
+  <si>
+    <t>Sai Srikanth Thota</t>
+  </si>
+  <si>
+    <t>5wr8</t>
+  </si>
+  <si>
+    <t>Santosh Kumar Nemalipuri</t>
+  </si>
+  <si>
+    <t>8XYI</t>
+  </si>
+  <si>
+    <t>Shaik Mahimood Pasha</t>
+  </si>
+  <si>
+    <t>92yp</t>
+  </si>
+  <si>
+    <t>sheik shahabaaz</t>
+  </si>
+  <si>
+    <t>3wn4</t>
+  </si>
+  <si>
+    <t>Shiva Sai Bompelli</t>
+  </si>
+  <si>
+    <t>4TFK</t>
+  </si>
+  <si>
+    <t>Sreedhar Goud Siddhotam</t>
+  </si>
+  <si>
+    <t>8XXV</t>
+  </si>
+  <si>
+    <t>Sri Jaswanth</t>
+  </si>
+  <si>
+    <t>QTC9</t>
+  </si>
+  <si>
+    <t>Srikanth Bandreddi</t>
+  </si>
+  <si>
+    <t>6FXM</t>
+  </si>
+  <si>
+    <t>Srikanth Buddepu</t>
+  </si>
+  <si>
+    <t>33CH</t>
+  </si>
+  <si>
+    <t>Srinivasa Chaitanya Seshabhattara</t>
+  </si>
+  <si>
+    <t>7EK2</t>
+  </si>
+  <si>
+    <t>Subbramanya Srinivas Kalyan Bollapragada</t>
+  </si>
+  <si>
+    <t>8KN3</t>
+  </si>
+  <si>
+    <t>Sudhakarreddy Katamreddy</t>
+  </si>
+  <si>
+    <t>4WTI</t>
+  </si>
+  <si>
+    <t>Taher H Patanwala</t>
+  </si>
+  <si>
+    <t>8XYH</t>
+  </si>
+  <si>
+    <t>Tamma Bhuwan Vamsi</t>
+  </si>
+  <si>
+    <t>5BVN</t>
+  </si>
+  <si>
+    <t>Thota Sandeep</t>
+  </si>
+  <si>
+    <t>8LQL</t>
+  </si>
+  <si>
+    <t>VALLURI VENKATA VAMSI SAI</t>
+  </si>
+  <si>
+    <t>54RP</t>
+  </si>
+  <si>
+    <t>Vamshinath Katukuri</t>
+  </si>
+  <si>
+    <t>882K</t>
+  </si>
+  <si>
+    <t>Venkata Rami Reddy Yeruva</t>
+  </si>
+  <si>
+    <t>69TV</t>
+  </si>
+  <si>
+    <t>Vinod Durisala</t>
+  </si>
+  <si>
+    <t>965V</t>
+  </si>
+  <si>
+    <t>Vivek Dadi</t>
+  </si>
+  <si>
+    <t>6RHV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +494,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,13 +516,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,18 +829,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,92 +851,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -671,22 +949,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -703,177 +981,808 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
+      <c r="D30" s="3">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="3">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="3">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="3">
+        <v>30</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="3">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="3">
+        <v>30</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3">
+        <v>30</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3">
+        <v>30</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3">
+        <v>20</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="3">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
+      <c r="D52" s="3">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
+      <c r="D53" s="3">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>